--- a/data/trans_orig/AIRE_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11234D10-BDD2-41B6-B5F7-0283503AC326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F40B233-1F46-4CF3-A074-3F2348352061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4B9EF37-4201-4A4F-AE06-32159614F2B7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DF09095C-383F-460C-A40C-4C63779D19DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="308">
   <si>
     <t>Población según lo que estarían dispuestos a pagar al año para que la administración pública ponga en marcha actuaciones (+++) en su municipio/ciudad (o lugar de residencia) que haga reducir la contaminación del aire en 2023 (Tasa respuesta: 51,54%)</t>
   </si>
@@ -80,880 +80,883 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>0,49%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>50 €</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>45 €</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>40 €</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>35 €</t>
+  </si>
+  <si>
+    <t>30 €</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>25 €</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>20 €</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>15 €</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>10 €</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>5 €</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>0 €*</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
+    <t>2,36%</t>
+  </si>
+  <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>50 €</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>45 €</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>40 €</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>35 €</t>
-  </si>
-  <si>
-    <t>30 €</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>25 €</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>20 €</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>15 €</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>10 €</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5 €</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>0 €*</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>1,51%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>77,85%</t>
   </si>
   <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1368,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5539F5E2-2CC2-474D-AA5C-5CA8074584CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643D1259-905E-4759-BDA8-851821366746}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1504,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>2061</v>
+        <v>1928</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1519,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>2061</v>
+        <v>1928</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1540,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>2351</v>
+        <v>2277</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1570,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>2351</v>
+        <v>2277</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1657,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>705</v>
+        <v>631</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>29</v>
@@ -1672,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>705</v>
+        <v>631</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>31</v>
@@ -1744,10 +1747,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>3584</v>
+        <v>3496</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>35</v>
@@ -1759,13 +1762,13 @@
         <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>1530</v>
+        <v>1456</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>37</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>38</v>
@@ -1774,13 +1777,13 @@
         <v>7</v>
       </c>
       <c r="N9" s="7">
-        <v>5114</v>
+        <v>4952</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>40</v>
@@ -1810,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>31</v>
@@ -1825,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>43</v>
@@ -1834,157 +1837,157 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="7">
         <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>5140</v>
+        <v>5010</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>4153</v>
+        <v>3922</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
       </c>
       <c r="N11" s="7">
-        <v>9293</v>
+        <v>8933</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>2607</v>
+        <v>2495</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1059</v>
+        <v>1006</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>3667</v>
+        <v>3501</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="7">
         <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>9856</v>
+        <v>9512</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>9711</v>
+        <v>9106</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>19567</v>
+        <v>18618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>69</v>
@@ -1999,7 +2002,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="7">
-        <v>10062</v>
+        <v>9211</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>71</v>
@@ -2014,7 +2017,7 @@
         <v>30</v>
       </c>
       <c r="I14" s="7">
-        <v>22267</v>
+        <v>19464</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>74</v>
@@ -2029,7 +2032,7 @@
         <v>43</v>
       </c>
       <c r="N14" s="7">
-        <v>32329</v>
+        <v>28675</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>77</v>
@@ -2050,7 +2053,7 @@
         <v>312</v>
       </c>
       <c r="D15" s="7">
-        <v>237087</v>
+        <v>223266</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>81</v>
@@ -2065,7 +2068,7 @@
         <v>660</v>
       </c>
       <c r="I15" s="7">
-        <v>378501</v>
+        <v>343313</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>84</v>
@@ -2080,7 +2083,7 @@
         <v>972</v>
       </c>
       <c r="N15" s="7">
-        <v>615589</v>
+        <v>566579</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>87</v>
@@ -2101,7 +2104,7 @@
         <v>352</v>
       </c>
       <c r="D16" s="7">
-        <v>270687</v>
+        <v>255267</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>90</v>
@@ -2116,7 +2119,7 @@
         <v>730</v>
       </c>
       <c r="I16" s="7">
-        <v>420394</v>
+        <v>381214</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>90</v>
@@ -2131,7 +2134,7 @@
         <v>1082</v>
       </c>
       <c r="N16" s="7">
-        <v>691082</v>
+        <v>636481</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>90</v>
@@ -2154,13 +2157,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>6121</v>
+        <v>5787</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>93</v>
@@ -2169,31 +2172,31 @@
         <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>7252</v>
+        <v>6707</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
       </c>
       <c r="N17" s="7">
-        <v>13372</v>
+        <v>12494</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,28 +2208,28 @@
         <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>13977</v>
+        <v>14276</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>5667</v>
+        <v>5279</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>101</v>
@@ -2235,16 +2238,16 @@
         <v>21</v>
       </c>
       <c r="N18" s="7">
-        <v>19645</v>
+        <v>19555</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2295,7 +2298,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>1146</v>
+        <v>1127</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>31</v>
@@ -2316,37 +2319,37 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>2121</v>
+        <v>1985</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>3267</v>
+        <v>3112</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,31 +2376,31 @@
         <v>3</v>
       </c>
       <c r="I21" s="7">
-        <v>2647</v>
+        <v>2460</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
       </c>
       <c r="N21" s="7">
-        <v>2647</v>
+        <v>2460</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>113</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,28 +2412,28 @@
         <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>9684</v>
+        <v>9299</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
       </c>
       <c r="I22" s="7">
-        <v>10834</v>
+        <v>10167</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>118</v>
@@ -2439,16 +2442,16 @@
         <v>25</v>
       </c>
       <c r="N22" s="7">
-        <v>20518</v>
+        <v>19466</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,130 +2463,130 @@
         <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>7709</v>
+        <v>7664</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>7506</v>
+        <v>7059</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
       </c>
       <c r="N23" s="7">
-        <v>15216</v>
+        <v>14723</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="7">
         <v>22</v>
       </c>
       <c r="D24" s="7">
-        <v>30168</v>
+        <v>31287</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
       </c>
       <c r="I24" s="7">
-        <v>40117</v>
+        <v>60664</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>59</v>
       </c>
       <c r="N24" s="7">
-        <v>70284</v>
+        <v>91951</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="7">
         <v>18</v>
       </c>
       <c r="D25" s="7">
-        <v>22427</v>
+        <v>22813</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
       </c>
       <c r="I25" s="7">
-        <v>13645</v>
+        <v>13181</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>139</v>
@@ -2592,67 +2595,67 @@
         <v>40</v>
       </c>
       <c r="N25" s="7">
-        <v>36072</v>
+        <v>35994</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="7">
         <v>51</v>
       </c>
       <c r="D26" s="7">
-        <v>68500</v>
+        <v>73154</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>82</v>
       </c>
       <c r="I26" s="7">
-        <v>57875</v>
+        <v>54146</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>133</v>
       </c>
       <c r="N26" s="7">
-        <v>126375</v>
+        <v>127300</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,46 +2667,46 @@
         <v>130</v>
       </c>
       <c r="D27" s="7">
-        <v>118017</v>
+        <v>110113</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H27" s="7">
         <v>194</v>
       </c>
       <c r="I27" s="7">
-        <v>126307</v>
+        <v>115704</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M27" s="7">
         <v>324</v>
       </c>
       <c r="N27" s="7">
-        <v>244324</v>
+        <v>225817</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,46 +2718,46 @@
         <v>806</v>
       </c>
       <c r="D28" s="7">
-        <v>833205</v>
+        <v>799568</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>1102</v>
       </c>
       <c r="I28" s="7">
-        <v>902386</v>
+        <v>924661</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>1908</v>
       </c>
       <c r="N28" s="7">
-        <v>1735592</v>
+        <v>1724229</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,7 +2769,7 @@
         <v>1062</v>
       </c>
       <c r="D29" s="7">
-        <v>1110954</v>
+        <v>1075088</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>90</v>
@@ -2781,7 +2784,7 @@
         <v>1486</v>
       </c>
       <c r="I29" s="7">
-        <v>1176357</v>
+        <v>1202013</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>90</v>
@@ -2796,7 +2799,7 @@
         <v>2548</v>
       </c>
       <c r="N29" s="7">
-        <v>2287311</v>
+        <v>2277101</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>90</v>
@@ -2810,7 +2813,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>10</v>
@@ -2819,46 +2822,46 @@
         <v>6</v>
       </c>
       <c r="D30" s="7">
-        <v>5908</v>
+        <v>5870</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
       </c>
       <c r="I30" s="7">
-        <v>2790</v>
+        <v>2674</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
       </c>
       <c r="N30" s="7">
-        <v>8698</v>
+        <v>8545</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,46 +2873,46 @@
         <v>7</v>
       </c>
       <c r="D31" s="7">
-        <v>7228</v>
+        <v>7104</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
       </c>
       <c r="I31" s="7">
-        <v>10429</v>
+        <v>9756</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M31" s="7">
         <v>20</v>
       </c>
       <c r="N31" s="7">
-        <v>17658</v>
+        <v>16859</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,37 +2933,37 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>717</v>
+        <v>659</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>717</v>
+        <v>659</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,46 +2975,46 @@
         <v>3</v>
       </c>
       <c r="D33" s="7">
-        <v>1506</v>
+        <v>1491</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
       </c>
       <c r="I33" s="7">
-        <v>1373</v>
+        <v>1723</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
       </c>
       <c r="N33" s="7">
-        <v>2878</v>
+        <v>3215</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,37 +3035,37 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>1558</v>
+        <v>1490</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>1558</v>
+        <v>1491</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,46 +3077,46 @@
         <v>5</v>
       </c>
       <c r="D35" s="7">
-        <v>6259</v>
+        <v>5834</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
       </c>
       <c r="I35" s="7">
-        <v>7609</v>
+        <v>7255</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M35" s="7">
         <v>17</v>
       </c>
       <c r="N35" s="7">
-        <v>13868</v>
+        <v>13089</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>197</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,199 +3128,199 @@
         <v>3</v>
       </c>
       <c r="D36" s="7">
-        <v>2836</v>
+        <v>2796</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
       </c>
       <c r="I36" s="7">
-        <v>5208</v>
+        <v>4803</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M36" s="7">
         <v>10</v>
       </c>
       <c r="N36" s="7">
-        <v>8044</v>
+        <v>7599</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="7">
         <v>8</v>
       </c>
       <c r="D37" s="7">
-        <v>5958</v>
+        <v>5972</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
       </c>
       <c r="I37" s="7">
-        <v>14617</v>
+        <v>14084</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="M37" s="7">
         <v>25</v>
       </c>
       <c r="N37" s="7">
-        <v>20575</v>
+        <v>20056</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="7">
         <v>13</v>
       </c>
       <c r="D38" s="7">
-        <v>11619</v>
+        <v>11447</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="H38" s="7">
         <v>8</v>
       </c>
       <c r="I38" s="7">
-        <v>5067</v>
+        <v>4771</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="M38" s="7">
         <v>21</v>
       </c>
       <c r="N38" s="7">
-        <v>16685</v>
+        <v>16218</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" s="7">
         <v>18</v>
       </c>
       <c r="D39" s="7">
-        <v>18825</v>
+        <v>18173</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H39" s="7">
         <v>35</v>
       </c>
       <c r="I39" s="7">
-        <v>18108</v>
+        <v>17227</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M39" s="7">
         <v>53</v>
       </c>
       <c r="N39" s="7">
-        <v>36933</v>
+        <v>35400</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>47</v>
+        <v>226</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,46 +3332,46 @@
         <v>89</v>
       </c>
       <c r="D40" s="7">
-        <v>77411</v>
+        <v>70881</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H40" s="7">
         <v>82</v>
       </c>
       <c r="I40" s="7">
-        <v>47035</v>
+        <v>42512</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M40" s="7">
         <v>171</v>
       </c>
       <c r="N40" s="7">
-        <v>124446</v>
+        <v>113393</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,46 +3383,46 @@
         <v>195</v>
       </c>
       <c r="D41" s="7">
-        <v>197376</v>
+        <v>194245</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H41" s="7">
         <v>342</v>
       </c>
       <c r="I41" s="7">
-        <v>232075</v>
+        <v>215692</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M41" s="7">
         <v>537</v>
       </c>
       <c r="N41" s="7">
-        <v>429451</v>
+        <v>409938</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,7 +3434,7 @@
         <v>347</v>
       </c>
       <c r="D42" s="7">
-        <v>334926</v>
+        <v>323814</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>90</v>
@@ -3446,7 +3449,7 @@
         <v>523</v>
       </c>
       <c r="I42" s="7">
-        <v>346585</v>
+        <v>322646</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>90</v>
@@ -3461,7 +3464,7 @@
         <v>870</v>
       </c>
       <c r="N42" s="7">
-        <v>681511</v>
+        <v>646461</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>90</v>
@@ -3484,46 +3487,46 @@
         <v>12</v>
       </c>
       <c r="D43" s="7">
-        <v>12029</v>
+        <v>11657</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H43" s="7">
         <v>14</v>
       </c>
       <c r="I43" s="7">
-        <v>12102</v>
+        <v>11310</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="M43" s="7">
         <v>26</v>
       </c>
       <c r="N43" s="7">
-        <v>24131</v>
+        <v>22967</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>248</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3538,13 @@
         <v>21</v>
       </c>
       <c r="D44" s="7">
-        <v>23556</v>
+        <v>23657</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>250</v>
@@ -3550,31 +3553,31 @@
         <v>22</v>
       </c>
       <c r="I44" s="7">
-        <v>16097</v>
+        <v>15035</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>251</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M44" s="7">
         <v>43</v>
       </c>
       <c r="N44" s="7">
-        <v>39653</v>
+        <v>38691</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>253</v>
+        <v>58</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>104</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,16 +3598,16 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
       </c>
       <c r="I45" s="7">
-        <v>717</v>
+        <v>659</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>254</v>
+        <v>114</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>11</v>
@@ -3616,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="N45" s="7">
-        <v>717</v>
+        <v>659</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>256</v>
@@ -3625,7 +3628,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,46 +3640,46 @@
         <v>4</v>
       </c>
       <c r="D46" s="7">
-        <v>2652</v>
+        <v>2619</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c r="H46" s="7">
         <v>5</v>
       </c>
       <c r="I46" s="7">
-        <v>4198</v>
+        <v>4339</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M46" s="7">
         <v>9</v>
       </c>
       <c r="N46" s="7">
-        <v>6850</v>
+        <v>6958</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>258</v>
+        <v>95</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,37 +3700,37 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="H47" s="7">
         <v>5</v>
       </c>
       <c r="I47" s="7">
-        <v>4204</v>
+        <v>3950</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>112</v>
+        <v>260</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>106</v>
+        <v>258</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
       </c>
       <c r="N47" s="7">
-        <v>4204</v>
+        <v>3950</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>23</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,46 +3742,46 @@
         <v>18</v>
       </c>
       <c r="D48" s="7">
-        <v>19527</v>
+        <v>18628</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="H48" s="7">
         <v>31</v>
       </c>
       <c r="I48" s="7">
-        <v>19974</v>
+        <v>18878</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M48" s="7">
         <v>49</v>
       </c>
       <c r="N48" s="7">
-        <v>39501</v>
+        <v>37506</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>253</v>
+        <v>97</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,199 +3793,199 @@
         <v>10</v>
       </c>
       <c r="D49" s="7">
-        <v>10546</v>
+        <v>10461</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="H49" s="7">
         <v>18</v>
       </c>
       <c r="I49" s="7">
-        <v>13121</v>
+        <v>12249</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>111</v>
+        <v>265</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M49" s="7">
         <v>28</v>
       </c>
       <c r="N49" s="7">
-        <v>23666</v>
+        <v>22709</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>101</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C50" s="7">
         <v>36</v>
       </c>
       <c r="D50" s="7">
-        <v>41266</v>
+        <v>42270</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>115</v>
+        <v>269</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H50" s="7">
         <v>63</v>
       </c>
       <c r="I50" s="7">
-        <v>58887</v>
+        <v>78670</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M50" s="7">
         <v>99</v>
       </c>
       <c r="N50" s="7">
-        <v>100152</v>
+        <v>120940</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="7">
         <v>34</v>
       </c>
       <c r="D51" s="7">
-        <v>36653</v>
+        <v>36755</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>275</v>
+        <v>66</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H51" s="7">
         <v>32</v>
       </c>
       <c r="I51" s="7">
-        <v>19771</v>
+        <v>18958</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>138</v>
+        <v>278</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M51" s="7">
         <v>66</v>
       </c>
       <c r="N51" s="7">
-        <v>56424</v>
+        <v>55713</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="7">
         <v>81</v>
       </c>
       <c r="D52" s="7">
-        <v>97181</v>
+        <v>100839</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H52" s="7">
         <v>138</v>
       </c>
       <c r="I52" s="7">
-        <v>85694</v>
+        <v>80479</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="M52" s="7">
         <v>219</v>
       </c>
       <c r="N52" s="7">
-        <v>182875</v>
+        <v>181318</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>286</v>
+        <v>133</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,46 +3997,46 @@
         <v>232</v>
       </c>
       <c r="D53" s="7">
-        <v>205490</v>
+        <v>190204</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H53" s="7">
         <v>306</v>
       </c>
       <c r="I53" s="7">
-        <v>195609</v>
+        <v>177680</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M53" s="7">
         <v>538</v>
       </c>
       <c r="N53" s="7">
-        <v>401099</v>
+        <v>367884</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,46 +4048,46 @@
         <v>1313</v>
       </c>
       <c r="D54" s="7">
-        <v>1267670</v>
+        <v>1217080</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H54" s="7">
         <v>2104</v>
       </c>
       <c r="I54" s="7">
-        <v>1512962</v>
+        <v>1483665</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M54" s="7">
         <v>3417</v>
       </c>
       <c r="N54" s="7">
-        <v>2780632</v>
+        <v>2700745</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,7 +4099,7 @@
         <v>1761</v>
       </c>
       <c r="D55" s="7">
-        <v>1716568</v>
+        <v>1654169</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>90</v>
@@ -4111,7 +4114,7 @@
         <v>2739</v>
       </c>
       <c r="I55" s="7">
-        <v>1943336</v>
+        <v>1905873</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>90</v>
@@ -4126,7 +4129,7 @@
         <v>4500</v>
       </c>
       <c r="N55" s="7">
-        <v>3659904</v>
+        <v>3560042</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>90</v>
@@ -4140,7 +4143,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
